--- a/bots/crawl_ch/output/clothes_2022-08-01.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-01.xlsx
@@ -559,7 +559,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -612,27 +612,31 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3404678008</t>
+          <t>3668130001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz XL</t>
+          <t>Prix Garantie Söckli Box one size natura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-xl/p/3404678008</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/prix-garantie-soeckli-box-one-size-natura/p/3668130001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>0</v>
@@ -644,50 +648,62 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18.95</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.49/1ST</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren Boxer schwarz XL 18.95 Schweizer Franken</t>
+          <t>Prix Garantie Söckli Box one size natura 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3668130001</t>
+          <t>3404678008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix Garantie Söckli Box one size natura</t>
+          <t>Naturaline Herren Boxer schwarz XL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/prix-garantie-soeckli-box-one-size-natura/p/3668130001</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/naturaline-herren-boxer-schwarz-xl/p/3404678008</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>0</v>
@@ -699,42 +715,26 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.49/1ST</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Prix Garantie Söckli Box one size natura 2.95 Schweizer Franken</t>
+          <t>Naturaline Herren Boxer schwarz XL 18.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1174,7 +1174,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3209,7 +3209,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3814,7 +3814,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4383,7 +4383,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4678,7 +4678,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4835,7 +4835,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -4959,7 +4959,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5258,7 +5258,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5515,7 +5515,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5566,7 +5566,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5721,7 +5721,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5823,7 +5823,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5976,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6027,7 +6027,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6180,7 +6180,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6335,7 +6335,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6490,7 +6490,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6543,7 +6543,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6696,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6747,7 +6747,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6900,7 +6900,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7004,7 +7004,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7208,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7452,7 +7452,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
@@ -7523,7 +7523,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-08-01 07:05:16</t>
+          <t>2022-08-01 21:00:22</t>
         </is>
       </c>
     </row>
